--- a/data_curation/dataset_430.xlsx
+++ b/data_curation/dataset_430.xlsx
@@ -133,7 +133,7 @@
     <t>DiagnosisByCriteria</t>
   </si>
   <si>
-    <t>TreatmentGroupBinar</t>
+    <t>TreatmentGroupBinary</t>
   </si>
   <si>
     <t>AppendicitisComplications</t>
